--- a/mlb_stats_analysis.xlsx
+++ b/mlb_stats_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kierensharma/github/moneyball/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A30C3637-7323-F047-A41C-13812467CB2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A546E1C9-B74D-294A-A688-6BA4AA03C9F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="28040" windowHeight="16460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="mlb_stats" sheetId="1" r:id="rId1"/>
@@ -1625,7 +1625,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1737,26 +1737,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1765,8 +1745,5542 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mlb_stats!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mlb_stats!$E$2:$E$301</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mlb_stats!$Q$2:$Q$301</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>176.53139356814702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171.56612184249627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171.11423550087872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165.40479999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>164.22608695652173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160.86474820143886</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>159.7427652733119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>158.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156.88709677419354</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>154.57017543859649</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>152.23487031700287</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>149.26893353941267</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>148.59677419354838</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>147.76615384615386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>146.92227204783259</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>144.46439628482972</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>144.24924471299093</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>142.20264317180616</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>142.08421052631579</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140.85581395348837</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>139.875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>139.08689458689457</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>138.30691642651297</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>138.00332778702162</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>137.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>137.20884146341464</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>134.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>133.50217076700434</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>132.74576271186442</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>132.06887052341597</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130.7967032967033</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>129.69648562300318</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>128.9351081530782</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>128.79503105590061</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>128.76823338735818</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>128.5408163265306</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>126.05373134328359</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>125.48820326678766</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>123.19897084048027</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>122.95731707317073</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>120.36880733944955</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>119.86531986531986</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>119.00568990042674</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>118.7437037037037</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>118.72037914691943</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>118.36727879799666</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>118.00369685767097</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>117.53979238754326</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>116.42857142857143</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>113.53206239168111</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>113.26543209876543</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>113.22160148975792</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>112.34042553191489</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>111.83279742765274</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>111.78082191780823</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>111.77280858676208</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>110.84399375975039</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>109.55056179775281</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>108.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>107.98581560283688</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>107.49707602339181</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>107.39378238341969</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>106.02739726027397</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>105.75471698113208</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>105.42281879194631</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>103.6541095890411</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>102.23183925811438</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>102.19271948608137</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>102.18327974276528</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>102.13470681458003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>100.60240963855422</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>99.62476547842401</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>99.365609348914859</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>99.263351749539595</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>98.777555110220447</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>98.539534883720933</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>98.454999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>97.972602739726028</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>97.82094081942337</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>97.097966728280966</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>96.44234800838575</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>96.227999999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>96.054766734279923</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>95.547697368421055</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>95.544642857142861</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95.037453183520597</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94.457013574660635</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>94.21198156682027</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93.852873563218395</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.564059900166384</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>92.978547854785475</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>92.28153564899452</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>92.100840336134453</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>91.991323210412148</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>91.774410774410768</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>91.695652173913047</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>91.459829059829062</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>91.257617728531855</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>90.937996820349767</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>90.57228915662651</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>90.252427184466015</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>89.853700516351125</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>89.300492610837438</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>89.136276391554702</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>89.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>89.05</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>88.92307692307692</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>87.705765407554665</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>87.572555205047323</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>87.535042735042737</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>87.340909090909093</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>86.878088962108734</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>86.358208955223887</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>85.582089552238813</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>84.650406504065046</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>84.454388984509464</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>84.354285714285709</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>84.069324090121313</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>83.437037037037044</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>83.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>82.724206349206355</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>82.613924050632917</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>82.299465240641709</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>82.290196078431379</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>82.283018867924525</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>81.273381294964025</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>80.931914893617019</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>80.728421052631575</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>80.643216080402013</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>80.524344569288388</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>80.07736943907156</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>80.06535947712419</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>79.155268022181147</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>78.997867803837948</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>78.945454545454552</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>78.938053097345133</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>78.890219560878251</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>78.665188470066525</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>78.603696098562622</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>78.545905707196027</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>78.217741935483872</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>78.142322097378283</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>78.089385474860336</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>77.913043478260875</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>77.601750547045953</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>77.205069124423957</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>77.201834862385326</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>76.133064516129039</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>75.572519083969468</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>75.162689804772228</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>74.907597535934286</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>74.467532467532465</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>74.253218884120173</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>73.936046511627907</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>73.860911270983209</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>73.459119496855351</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>72.874172185430467</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>71.684210526315795</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>71.537864077669909</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>71.475479744136464</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>71.121399176954739</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>70.669841269841271</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>70.625310173697272</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>70.191126279863482</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>69.895582329317264</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>69.019230769230774</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>68.490514905149055</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>68.309178743961354</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>67.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>67.595808383233532</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>67.292817679558013</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>66.901595744680847</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>66.848920863309345</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>66.774193548387103</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>66.578947368421055</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>66.067114093959731</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>65.85526315789474</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>65.654135338345867</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>65.553235908141957</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>65.054347826086953</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>64.571823204419886</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>64.370860927152322</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>64.021699819168177</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>63.794988610478363</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>63.410138248847929</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>63.216867469879517</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>62.650602409638552</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>61.921052631578945</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>61.846153846153847</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>61.722891566265062</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>61.64</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>61.495327102803735</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>60.977777777777774</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>59.859223300970875</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>59.264270613107826</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>58.789144050104383</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>58.7687074829932</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>58.677536231884055</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>58.340852130325814</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>57.898148148148145</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>57.672941176470587</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>57.650130548302869</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>57.611111111111114</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>57.073643410852711</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>56.793103448275865</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>56.583143507972665</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>56.486238532110093</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>56.397435897435898</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>56.362025316455693</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>55.513595166163142</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>55.224274406332455</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>55.157142857142858</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>54.913793103448278</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>54.878048780487802</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>54.847262247838614</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>54.838709677419352</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>54.573804573804573</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>54.414507772020727</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>53.300248138957819</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>53.189591078066911</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>52.344647519582246</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>52.272511848341232</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>51.661870503597122</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>51.386666666666663</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>51.014634146341464</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>50.934545454545457</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>50.697916666666664</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>50.649230769230769</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>49.896907216494846</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>49.748110831234257</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>49.72853185595568</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>49.664233576642339</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>48.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>48.41317365269461</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>48.324137931034485</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>48.240469208211145</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>48.052307692307693</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>47.84873949579832</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>47.823691460055095</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>47.263291139240508</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>47.125</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>46.785714285714285</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>46.477099236641223</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>46.462365591397848</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>46.022727272727273</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>46.022371364653246</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>45.417721518987342</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>45.271493212669682</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>45.106227106227109</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>44.620300751879697</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>44.022160664819943</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>43.831168831168831</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>43.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>43.582677165354333</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>43.495440729483285</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>42.88796680497925</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>42.765517241379314</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>42.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>42.473282442748094</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>42.203389830508478</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>42.188741721854306</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>41.964285714285715</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>41.762081784386616</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>41.76</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>41.374647887323945</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>41.263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>40.98705501618123</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>40.909319899244331</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>40.74074074074074</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>40.548780487804876</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>39.568345323741006</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>37.310924369747902</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>37.140077821011673</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>37.109215017064848</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>36.652719665271967</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>36.515625</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>33.853448275862071</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>33.783783783783782</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>33.362989323843415</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>33.097457627118644</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>32.516129032258064</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>32.098159509202453</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>30.449392712550608</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>30.062240663900415</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>29.743682310469314</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>29.608510638297872</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>28.181069958847736</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>27.107142857142858</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>26.522522522522522</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>25.792035398230087</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>25.388429752066116</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>22.675925925925927</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>22.284046692607003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-8BB1-4349-9DEA-9E533A7171F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mlb_stats!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mlb_stats!$E$2:$E$301</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mlb_stats!$Q$2:$Q$301</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>176.53139356814702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171.56612184249627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171.11423550087872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165.40479999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>164.22608695652173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160.86474820143886</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>159.7427652733119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>158.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156.88709677419354</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>154.57017543859649</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>152.23487031700287</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>149.26893353941267</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>148.59677419354838</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>147.76615384615386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>146.92227204783259</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>144.46439628482972</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>144.24924471299093</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>142.20264317180616</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>142.08421052631579</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140.85581395348837</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>139.875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>139.08689458689457</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>138.30691642651297</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>138.00332778702162</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>137.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>137.20884146341464</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>134.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>133.50217076700434</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>132.74576271186442</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>132.06887052341597</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130.7967032967033</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>129.69648562300318</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>128.9351081530782</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>128.79503105590061</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>128.76823338735818</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>128.5408163265306</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>126.05373134328359</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>125.48820326678766</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>123.19897084048027</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>122.95731707317073</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>120.36880733944955</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>119.86531986531986</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>119.00568990042674</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>118.7437037037037</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>118.72037914691943</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>118.36727879799666</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>118.00369685767097</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>117.53979238754326</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>116.42857142857143</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>113.53206239168111</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>113.26543209876543</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>113.22160148975792</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>112.34042553191489</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>111.83279742765274</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>111.78082191780823</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>111.77280858676208</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>110.84399375975039</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>109.55056179775281</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>108.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>107.98581560283688</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>107.49707602339181</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>107.39378238341969</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>106.02739726027397</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>105.75471698113208</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>105.42281879194631</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>103.6541095890411</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>102.23183925811438</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>102.19271948608137</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>102.18327974276528</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>102.13470681458003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>100.60240963855422</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>99.62476547842401</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>99.365609348914859</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>99.263351749539595</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>98.777555110220447</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>98.539534883720933</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>98.454999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>97.972602739726028</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>97.82094081942337</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>97.097966728280966</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>96.44234800838575</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>96.227999999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>96.054766734279923</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>95.547697368421055</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>95.544642857142861</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95.037453183520597</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94.457013574660635</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>94.21198156682027</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93.852873563218395</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.564059900166384</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>92.978547854785475</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>92.28153564899452</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>92.100840336134453</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>91.991323210412148</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>91.774410774410768</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>91.695652173913047</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>91.459829059829062</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>91.257617728531855</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>90.937996820349767</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>90.57228915662651</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>90.252427184466015</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>89.853700516351125</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>89.300492610837438</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>89.136276391554702</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>89.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>89.05</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>88.92307692307692</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>87.705765407554665</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>87.572555205047323</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>87.535042735042737</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>87.340909090909093</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>86.878088962108734</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>86.358208955223887</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>85.582089552238813</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>84.650406504065046</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>84.454388984509464</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>84.354285714285709</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>84.069324090121313</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>83.437037037037044</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>83.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>82.724206349206355</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>82.613924050632917</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>82.299465240641709</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>82.290196078431379</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>82.283018867924525</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>81.273381294964025</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>80.931914893617019</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>80.728421052631575</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>80.643216080402013</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>80.524344569288388</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>80.07736943907156</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>80.06535947712419</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>79.155268022181147</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>78.997867803837948</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>78.945454545454552</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>78.938053097345133</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>78.890219560878251</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>78.665188470066525</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>78.603696098562622</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>78.545905707196027</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>78.217741935483872</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>78.142322097378283</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>78.089385474860336</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>77.913043478260875</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>77.601750547045953</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>77.205069124423957</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>77.201834862385326</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>76.133064516129039</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>75.572519083969468</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>75.162689804772228</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>74.907597535934286</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>74.467532467532465</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>74.253218884120173</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>73.936046511627907</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>73.860911270983209</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>73.459119496855351</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>72.874172185430467</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>71.684210526315795</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>71.537864077669909</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>71.475479744136464</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>71.121399176954739</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>70.669841269841271</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>70.625310173697272</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>70.191126279863482</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>69.895582329317264</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>69.019230769230774</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>68.490514905149055</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>68.309178743961354</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>67.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>67.595808383233532</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>67.292817679558013</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>66.901595744680847</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>66.848920863309345</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>66.774193548387103</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>66.578947368421055</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>66.067114093959731</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>65.85526315789474</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>65.654135338345867</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>65.553235908141957</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>65.054347826086953</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>64.571823204419886</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>64.370860927152322</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>64.021699819168177</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>63.794988610478363</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>63.410138248847929</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>63.216867469879517</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>62.650602409638552</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>61.921052631578945</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>61.846153846153847</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>61.722891566265062</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>61.64</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>61.495327102803735</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>60.977777777777774</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>59.859223300970875</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>59.264270613107826</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>58.789144050104383</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>58.7687074829932</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>58.677536231884055</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>58.340852130325814</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>57.898148148148145</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>57.672941176470587</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>57.650130548302869</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>57.611111111111114</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>57.073643410852711</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>56.793103448275865</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>56.583143507972665</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>56.486238532110093</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>56.397435897435898</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>56.362025316455693</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>55.513595166163142</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>55.224274406332455</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>55.157142857142858</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>54.913793103448278</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>54.878048780487802</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>54.847262247838614</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>54.838709677419352</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>54.573804573804573</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>54.414507772020727</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>53.300248138957819</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>53.189591078066911</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>52.344647519582246</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>52.272511848341232</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>51.661870503597122</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>51.386666666666663</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>51.014634146341464</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>50.934545454545457</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>50.697916666666664</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>50.649230769230769</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>49.896907216494846</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>49.748110831234257</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>49.72853185595568</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>49.664233576642339</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>48.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>48.41317365269461</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>48.324137931034485</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>48.240469208211145</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>48.052307692307693</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>47.84873949579832</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>47.823691460055095</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>47.263291139240508</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>47.125</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>46.785714285714285</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>46.477099236641223</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>46.462365591397848</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>46.022727272727273</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>46.022371364653246</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>45.417721518987342</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>45.271493212669682</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>45.106227106227109</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>44.620300751879697</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>44.022160664819943</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>43.831168831168831</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>43.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>43.582677165354333</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>43.495440729483285</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>42.88796680497925</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>42.765517241379314</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>42.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>42.473282442748094</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>42.203389830508478</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>42.188741721854306</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>41.964285714285715</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>41.762081784386616</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>41.76</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>41.374647887323945</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>41.263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>40.98705501618123</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>40.909319899244331</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>40.74074074074074</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>40.548780487804876</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>39.568345323741006</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>37.310924369747902</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>37.140077821011673</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>37.109215017064848</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>36.652719665271967</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>36.515625</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>33.853448275862071</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>33.783783783783782</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>33.362989323843415</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>33.097457627118644</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>32.516129032258064</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>32.098159509202453</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>30.449392712550608</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>30.062240663900415</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>29.743682310469314</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>29.608510638297872</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>28.181069958847736</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>27.107142857142858</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>26.522522522522522</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>25.792035398230087</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>25.388429752066116</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>22.675925925925927</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>22.284046692607003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-8BB1-4349-9DEA-9E533A7171F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mlb_stats!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mlb_stats!$E$2:$E$301</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mlb_stats!$Q$2:$Q$301</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>176.53139356814702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171.56612184249627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171.11423550087872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165.40479999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>164.22608695652173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160.86474820143886</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>159.7427652733119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>158.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156.88709677419354</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>154.57017543859649</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>152.23487031700287</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>149.26893353941267</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>148.59677419354838</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>147.76615384615386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>146.92227204783259</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>144.46439628482972</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>144.24924471299093</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>142.20264317180616</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>142.08421052631579</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140.85581395348837</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>139.875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>139.08689458689457</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>138.30691642651297</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>138.00332778702162</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>137.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>137.20884146341464</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>134.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>133.50217076700434</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>132.74576271186442</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>132.06887052341597</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130.7967032967033</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>129.69648562300318</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>128.9351081530782</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>128.79503105590061</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>128.76823338735818</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>128.5408163265306</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>126.05373134328359</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>125.48820326678766</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>123.19897084048027</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>122.95731707317073</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>120.36880733944955</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>119.86531986531986</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>119.00568990042674</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>118.7437037037037</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>118.72037914691943</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>118.36727879799666</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>118.00369685767097</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>117.53979238754326</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>116.42857142857143</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>113.53206239168111</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>113.26543209876543</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>113.22160148975792</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>112.34042553191489</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>111.83279742765274</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>111.78082191780823</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>111.77280858676208</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>110.84399375975039</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>109.55056179775281</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>108.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>107.98581560283688</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>107.49707602339181</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>107.39378238341969</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>106.02739726027397</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>105.75471698113208</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>105.42281879194631</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>103.6541095890411</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>102.23183925811438</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>102.19271948608137</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>102.18327974276528</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>102.13470681458003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>100.60240963855422</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>99.62476547842401</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>99.365609348914859</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>99.263351749539595</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>98.777555110220447</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>98.539534883720933</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>98.454999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>97.972602739726028</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>97.82094081942337</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>97.097966728280966</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>96.44234800838575</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>96.227999999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>96.054766734279923</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>95.547697368421055</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>95.544642857142861</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95.037453183520597</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94.457013574660635</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>94.21198156682027</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93.852873563218395</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.564059900166384</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>92.978547854785475</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>92.28153564899452</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>92.100840336134453</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>91.991323210412148</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>91.774410774410768</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>91.695652173913047</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>91.459829059829062</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>91.257617728531855</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>90.937996820349767</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>90.57228915662651</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>90.252427184466015</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>89.853700516351125</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>89.300492610837438</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>89.136276391554702</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>89.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>89.05</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>88.92307692307692</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>87.705765407554665</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>87.572555205047323</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>87.535042735042737</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>87.340909090909093</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>86.878088962108734</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>86.358208955223887</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>85.582089552238813</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>84.650406504065046</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>84.454388984509464</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>84.354285714285709</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>84.069324090121313</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>83.437037037037044</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>83.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>82.724206349206355</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>82.613924050632917</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>82.299465240641709</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>82.290196078431379</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>82.283018867924525</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>81.273381294964025</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>80.931914893617019</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>80.728421052631575</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>80.643216080402013</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>80.524344569288388</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>80.07736943907156</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>80.06535947712419</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>79.155268022181147</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>78.997867803837948</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>78.945454545454552</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>78.938053097345133</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>78.890219560878251</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>78.665188470066525</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>78.603696098562622</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>78.545905707196027</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>78.217741935483872</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>78.142322097378283</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>78.089385474860336</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>77.913043478260875</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>77.601750547045953</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>77.205069124423957</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>77.201834862385326</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>76.133064516129039</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>75.572519083969468</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>75.162689804772228</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>74.907597535934286</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>74.467532467532465</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>74.253218884120173</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>73.936046511627907</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>73.860911270983209</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>73.459119496855351</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>72.874172185430467</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>71.684210526315795</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>71.537864077669909</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>71.475479744136464</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>71.121399176954739</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>70.669841269841271</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>70.625310173697272</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>70.191126279863482</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>69.895582329317264</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>69.019230769230774</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>68.490514905149055</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>68.309178743961354</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>67.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>67.595808383233532</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>67.292817679558013</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>66.901595744680847</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>66.848920863309345</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>66.774193548387103</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>66.578947368421055</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>66.067114093959731</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>65.85526315789474</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>65.654135338345867</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>65.553235908141957</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>65.054347826086953</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>64.571823204419886</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>64.370860927152322</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>64.021699819168177</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>63.794988610478363</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>63.410138248847929</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>63.216867469879517</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>62.650602409638552</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>61.921052631578945</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>61.846153846153847</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>61.722891566265062</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>61.64</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>61.495327102803735</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>60.977777777777774</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>59.859223300970875</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>59.264270613107826</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>58.789144050104383</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>58.7687074829932</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>58.677536231884055</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>58.340852130325814</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>57.898148148148145</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>57.672941176470587</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>57.650130548302869</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>57.611111111111114</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>57.073643410852711</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>56.793103448275865</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>56.583143507972665</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>56.486238532110093</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>56.397435897435898</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>56.362025316455693</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>55.513595166163142</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>55.224274406332455</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>55.157142857142858</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>54.913793103448278</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>54.878048780487802</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>54.847262247838614</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>54.838709677419352</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>54.573804573804573</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>54.414507772020727</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>53.300248138957819</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>53.189591078066911</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>52.344647519582246</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>52.272511848341232</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>51.661870503597122</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>51.386666666666663</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>51.014634146341464</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>50.934545454545457</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>50.697916666666664</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>50.649230769230769</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>49.896907216494846</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>49.748110831234257</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>49.72853185595568</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>49.664233576642339</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>48.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>48.41317365269461</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>48.324137931034485</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>48.240469208211145</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>48.052307692307693</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>47.84873949579832</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>47.823691460055095</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>47.263291139240508</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>47.125</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>46.785714285714285</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>46.477099236641223</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>46.462365591397848</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>46.022727272727273</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>46.022371364653246</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>45.417721518987342</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>45.271493212669682</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>45.106227106227109</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>44.620300751879697</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>44.022160664819943</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>43.831168831168831</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>43.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>43.582677165354333</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>43.495440729483285</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>42.88796680497925</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>42.765517241379314</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>42.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>42.473282442748094</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>42.203389830508478</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>42.188741721854306</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>41.964285714285715</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>41.762081784386616</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>41.76</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>41.374647887323945</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>41.263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>40.98705501618123</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>40.909319899244331</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>40.74074074074074</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>40.548780487804876</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>39.568345323741006</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>37.310924369747902</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>37.140077821011673</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>37.109215017064848</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>36.652719665271967</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>36.515625</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>33.853448275862071</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>33.783783783783782</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>33.362989323843415</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>33.097457627118644</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>32.516129032258064</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>32.098159509202453</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>30.449392712550608</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>30.062240663900415</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>29.743682310469314</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>29.608510638297872</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>28.181069958847736</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>27.107142857142858</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>26.522522522522522</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>25.792035398230087</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>25.388429752066116</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>22.675925925925927</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>22.284046692607003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8BB1-4349-9DEA-9E533A7171F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>mlb_stats!$Q$1</c:f>
@@ -3635,7 +9149,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8BB1-4349-9DEA-9E533A7171F6}"/>
+              <c16:uniqueId val="{0000000B-8BB1-4349-9DEA-9E533A7171F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3691,26 +9205,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3757,6 +9251,7 @@
         <c:axId val="455060895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3799,26 +9294,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3860,41 +9335,15 @@
         <c:crossAx val="455059263"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="4"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -3911,562 +9360,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4866,10 +9759,10 @@
   <dimension ref="A1:Q301"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomRight" activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/mlb_stats_analysis.xlsx
+++ b/mlb_stats_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kierensharma/github/moneyball/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A30C3637-7323-F047-A41C-13812467CB2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E9E185ED-EDD3-3245-B6E6-EC4C2EEE62CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="28040" windowHeight="16460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="mlb_stats" sheetId="1" r:id="rId1"/>
@@ -1625,7 +1625,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1737,26 +1737,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1765,8 +1745,5542 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mlb_stats!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mlb_stats!$E$2:$E$301</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mlb_stats!$Q$2:$Q$301</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>176.53139356814702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171.56612184249627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171.11423550087872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165.40479999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>164.22608695652173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160.86474820143886</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>159.7427652733119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>158.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156.88709677419354</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>154.57017543859649</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>152.23487031700287</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>149.26893353941267</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>148.59677419354838</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>147.76615384615386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>146.92227204783259</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>144.46439628482972</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>144.24924471299093</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>142.20264317180616</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>142.08421052631579</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140.85581395348837</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>139.875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>139.08689458689457</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>138.30691642651297</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>138.00332778702162</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>137.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>137.20884146341464</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>134.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>133.50217076700434</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>132.74576271186442</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>132.06887052341597</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130.7967032967033</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>129.69648562300318</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>128.9351081530782</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>128.79503105590061</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>128.76823338735818</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>128.5408163265306</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>126.05373134328359</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>125.48820326678766</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>123.19897084048027</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>122.95731707317073</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>120.36880733944955</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>119.86531986531986</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>119.00568990042674</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>118.7437037037037</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>118.72037914691943</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>118.36727879799666</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>118.00369685767097</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>117.53979238754326</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>116.42857142857143</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>113.53206239168111</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>113.26543209876543</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>113.22160148975792</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>112.34042553191489</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>111.83279742765274</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>111.78082191780823</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>111.77280858676208</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>110.84399375975039</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>109.55056179775281</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>108.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>107.98581560283688</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>107.49707602339181</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>107.39378238341969</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>106.02739726027397</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>105.75471698113208</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>105.42281879194631</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>103.6541095890411</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>102.23183925811438</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>102.19271948608137</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>102.18327974276528</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>102.13470681458003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>100.60240963855422</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>99.62476547842401</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>99.365609348914859</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>99.263351749539595</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>98.777555110220447</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>98.539534883720933</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>98.454999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>97.972602739726028</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>97.82094081942337</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>97.097966728280966</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>96.44234800838575</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>96.227999999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>96.054766734279923</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>95.547697368421055</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>95.544642857142861</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95.037453183520597</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94.457013574660635</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>94.21198156682027</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93.852873563218395</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.564059900166384</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>92.978547854785475</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>92.28153564899452</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>92.100840336134453</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>91.991323210412148</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>91.774410774410768</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>91.695652173913047</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>91.459829059829062</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>91.257617728531855</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>90.937996820349767</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>90.57228915662651</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>90.252427184466015</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>89.853700516351125</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>89.300492610837438</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>89.136276391554702</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>89.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>89.05</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>88.92307692307692</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>87.705765407554665</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>87.572555205047323</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>87.535042735042737</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>87.340909090909093</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>86.878088962108734</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>86.358208955223887</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>85.582089552238813</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>84.650406504065046</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>84.454388984509464</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>84.354285714285709</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>84.069324090121313</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>83.437037037037044</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>83.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>82.724206349206355</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>82.613924050632917</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>82.299465240641709</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>82.290196078431379</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>82.283018867924525</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>81.273381294964025</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>80.931914893617019</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>80.728421052631575</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>80.643216080402013</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>80.524344569288388</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>80.07736943907156</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>80.06535947712419</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>79.155268022181147</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>78.997867803837948</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>78.945454545454552</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>78.938053097345133</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>78.890219560878251</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>78.665188470066525</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>78.603696098562622</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>78.545905707196027</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>78.217741935483872</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>78.142322097378283</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>78.089385474860336</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>77.913043478260875</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>77.601750547045953</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>77.205069124423957</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>77.201834862385326</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>76.133064516129039</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>75.572519083969468</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>75.162689804772228</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>74.907597535934286</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>74.467532467532465</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>74.253218884120173</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>73.936046511627907</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>73.860911270983209</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>73.459119496855351</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>72.874172185430467</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>71.684210526315795</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>71.537864077669909</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>71.475479744136464</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>71.121399176954739</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>70.669841269841271</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>70.625310173697272</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>70.191126279863482</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>69.895582329317264</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>69.019230769230774</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>68.490514905149055</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>68.309178743961354</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>67.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>67.595808383233532</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>67.292817679558013</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>66.901595744680847</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>66.848920863309345</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>66.774193548387103</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>66.578947368421055</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>66.067114093959731</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>65.85526315789474</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>65.654135338345867</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>65.553235908141957</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>65.054347826086953</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>64.571823204419886</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>64.370860927152322</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>64.021699819168177</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>63.794988610478363</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>63.410138248847929</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>63.216867469879517</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>62.650602409638552</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>61.921052631578945</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>61.846153846153847</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>61.722891566265062</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>61.64</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>61.495327102803735</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>60.977777777777774</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>59.859223300970875</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>59.264270613107826</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>58.789144050104383</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>58.7687074829932</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>58.677536231884055</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>58.340852130325814</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>57.898148148148145</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>57.672941176470587</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>57.650130548302869</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>57.611111111111114</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>57.073643410852711</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>56.793103448275865</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>56.583143507972665</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>56.486238532110093</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>56.397435897435898</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>56.362025316455693</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>55.513595166163142</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>55.224274406332455</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>55.157142857142858</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>54.913793103448278</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>54.878048780487802</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>54.847262247838614</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>54.838709677419352</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>54.573804573804573</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>54.414507772020727</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>53.300248138957819</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>53.189591078066911</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>52.344647519582246</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>52.272511848341232</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>51.661870503597122</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>51.386666666666663</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>51.014634146341464</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>50.934545454545457</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>50.697916666666664</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>50.649230769230769</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>49.896907216494846</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>49.748110831234257</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>49.72853185595568</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>49.664233576642339</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>48.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>48.41317365269461</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>48.324137931034485</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>48.240469208211145</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>48.052307692307693</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>47.84873949579832</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>47.823691460055095</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>47.263291139240508</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>47.125</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>46.785714285714285</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>46.477099236641223</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>46.462365591397848</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>46.022727272727273</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>46.022371364653246</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>45.417721518987342</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>45.271493212669682</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>45.106227106227109</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>44.620300751879697</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>44.022160664819943</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>43.831168831168831</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>43.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>43.582677165354333</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>43.495440729483285</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>42.88796680497925</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>42.765517241379314</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>42.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>42.473282442748094</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>42.203389830508478</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>42.188741721854306</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>41.964285714285715</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>41.762081784386616</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>41.76</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>41.374647887323945</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>41.263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>40.98705501618123</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>40.909319899244331</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>40.74074074074074</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>40.548780487804876</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>39.568345323741006</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>37.310924369747902</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>37.140077821011673</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>37.109215017064848</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>36.652719665271967</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>36.515625</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>33.853448275862071</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>33.783783783783782</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>33.362989323843415</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>33.097457627118644</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>32.516129032258064</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>32.098159509202453</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>30.449392712550608</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>30.062240663900415</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>29.743682310469314</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>29.608510638297872</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>28.181069958847736</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>27.107142857142858</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>26.522522522522522</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>25.792035398230087</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>25.388429752066116</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>22.675925925925927</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>22.284046692607003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-8BB1-4349-9DEA-9E533A7171F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mlb_stats!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mlb_stats!$E$2:$E$301</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mlb_stats!$Q$2:$Q$301</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>176.53139356814702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171.56612184249627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171.11423550087872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165.40479999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>164.22608695652173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160.86474820143886</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>159.7427652733119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>158.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156.88709677419354</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>154.57017543859649</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>152.23487031700287</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>149.26893353941267</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>148.59677419354838</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>147.76615384615386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>146.92227204783259</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>144.46439628482972</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>144.24924471299093</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>142.20264317180616</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>142.08421052631579</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140.85581395348837</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>139.875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>139.08689458689457</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>138.30691642651297</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>138.00332778702162</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>137.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>137.20884146341464</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>134.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>133.50217076700434</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>132.74576271186442</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>132.06887052341597</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130.7967032967033</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>129.69648562300318</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>128.9351081530782</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>128.79503105590061</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>128.76823338735818</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>128.5408163265306</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>126.05373134328359</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>125.48820326678766</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>123.19897084048027</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>122.95731707317073</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>120.36880733944955</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>119.86531986531986</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>119.00568990042674</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>118.7437037037037</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>118.72037914691943</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>118.36727879799666</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>118.00369685767097</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>117.53979238754326</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>116.42857142857143</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>113.53206239168111</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>113.26543209876543</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>113.22160148975792</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>112.34042553191489</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>111.83279742765274</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>111.78082191780823</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>111.77280858676208</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>110.84399375975039</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>109.55056179775281</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>108.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>107.98581560283688</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>107.49707602339181</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>107.39378238341969</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>106.02739726027397</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>105.75471698113208</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>105.42281879194631</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>103.6541095890411</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>102.23183925811438</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>102.19271948608137</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>102.18327974276528</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>102.13470681458003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>100.60240963855422</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>99.62476547842401</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>99.365609348914859</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>99.263351749539595</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>98.777555110220447</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>98.539534883720933</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>98.454999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>97.972602739726028</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>97.82094081942337</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>97.097966728280966</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>96.44234800838575</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>96.227999999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>96.054766734279923</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>95.547697368421055</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>95.544642857142861</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95.037453183520597</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94.457013574660635</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>94.21198156682027</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93.852873563218395</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.564059900166384</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>92.978547854785475</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>92.28153564899452</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>92.100840336134453</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>91.991323210412148</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>91.774410774410768</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>91.695652173913047</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>91.459829059829062</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>91.257617728531855</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>90.937996820349767</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>90.57228915662651</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>90.252427184466015</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>89.853700516351125</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>89.300492610837438</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>89.136276391554702</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>89.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>89.05</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>88.92307692307692</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>87.705765407554665</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>87.572555205047323</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>87.535042735042737</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>87.340909090909093</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>86.878088962108734</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>86.358208955223887</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>85.582089552238813</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>84.650406504065046</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>84.454388984509464</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>84.354285714285709</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>84.069324090121313</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>83.437037037037044</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>83.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>82.724206349206355</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>82.613924050632917</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>82.299465240641709</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>82.290196078431379</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>82.283018867924525</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>81.273381294964025</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>80.931914893617019</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>80.728421052631575</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>80.643216080402013</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>80.524344569288388</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>80.07736943907156</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>80.06535947712419</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>79.155268022181147</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>78.997867803837948</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>78.945454545454552</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>78.938053097345133</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>78.890219560878251</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>78.665188470066525</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>78.603696098562622</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>78.545905707196027</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>78.217741935483872</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>78.142322097378283</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>78.089385474860336</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>77.913043478260875</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>77.601750547045953</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>77.205069124423957</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>77.201834862385326</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>76.133064516129039</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>75.572519083969468</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>75.162689804772228</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>74.907597535934286</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>74.467532467532465</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>74.253218884120173</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>73.936046511627907</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>73.860911270983209</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>73.459119496855351</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>72.874172185430467</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>71.684210526315795</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>71.537864077669909</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>71.475479744136464</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>71.121399176954739</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>70.669841269841271</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>70.625310173697272</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>70.191126279863482</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>69.895582329317264</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>69.019230769230774</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>68.490514905149055</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>68.309178743961354</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>67.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>67.595808383233532</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>67.292817679558013</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>66.901595744680847</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>66.848920863309345</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>66.774193548387103</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>66.578947368421055</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>66.067114093959731</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>65.85526315789474</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>65.654135338345867</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>65.553235908141957</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>65.054347826086953</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>64.571823204419886</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>64.370860927152322</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>64.021699819168177</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>63.794988610478363</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>63.410138248847929</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>63.216867469879517</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>62.650602409638552</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>61.921052631578945</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>61.846153846153847</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>61.722891566265062</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>61.64</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>61.495327102803735</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>60.977777777777774</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>59.859223300970875</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>59.264270613107826</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>58.789144050104383</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>58.7687074829932</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>58.677536231884055</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>58.340852130325814</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>57.898148148148145</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>57.672941176470587</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>57.650130548302869</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>57.611111111111114</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>57.073643410852711</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>56.793103448275865</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>56.583143507972665</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>56.486238532110093</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>56.397435897435898</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>56.362025316455693</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>55.513595166163142</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>55.224274406332455</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>55.157142857142858</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>54.913793103448278</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>54.878048780487802</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>54.847262247838614</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>54.838709677419352</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>54.573804573804573</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>54.414507772020727</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>53.300248138957819</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>53.189591078066911</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>52.344647519582246</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>52.272511848341232</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>51.661870503597122</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>51.386666666666663</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>51.014634146341464</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>50.934545454545457</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>50.697916666666664</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>50.649230769230769</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>49.896907216494846</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>49.748110831234257</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>49.72853185595568</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>49.664233576642339</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>48.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>48.41317365269461</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>48.324137931034485</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>48.240469208211145</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>48.052307692307693</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>47.84873949579832</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>47.823691460055095</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>47.263291139240508</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>47.125</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>46.785714285714285</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>46.477099236641223</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>46.462365591397848</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>46.022727272727273</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>46.022371364653246</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>45.417721518987342</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>45.271493212669682</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>45.106227106227109</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>44.620300751879697</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>44.022160664819943</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>43.831168831168831</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>43.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>43.582677165354333</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>43.495440729483285</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>42.88796680497925</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>42.765517241379314</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>42.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>42.473282442748094</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>42.203389830508478</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>42.188741721854306</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>41.964285714285715</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>41.762081784386616</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>41.76</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>41.374647887323945</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>41.263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>40.98705501618123</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>40.909319899244331</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>40.74074074074074</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>40.548780487804876</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>39.568345323741006</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>37.310924369747902</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>37.140077821011673</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>37.109215017064848</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>36.652719665271967</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>36.515625</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>33.853448275862071</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>33.783783783783782</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>33.362989323843415</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>33.097457627118644</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>32.516129032258064</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>32.098159509202453</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>30.449392712550608</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>30.062240663900415</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>29.743682310469314</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>29.608510638297872</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>28.181069958847736</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>27.107142857142858</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>26.522522522522522</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>25.792035398230087</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>25.388429752066116</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>22.675925925925927</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>22.284046692607003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-8BB1-4349-9DEA-9E533A7171F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mlb_stats!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mlb_stats!$E$2:$E$301</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mlb_stats!$Q$2:$Q$301</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>176.53139356814702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171.56612184249627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171.11423550087872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165.40479999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>164.22608695652173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160.86474820143886</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>159.7427652733119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>158.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156.88709677419354</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>154.57017543859649</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>152.23487031700287</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>149.26893353941267</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>148.59677419354838</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>147.76615384615386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>146.92227204783259</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>144.46439628482972</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>144.24924471299093</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>142.20264317180616</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>142.08421052631579</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140.85581395348837</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>139.875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>139.08689458689457</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>138.30691642651297</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>138.00332778702162</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>137.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>137.20884146341464</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>134.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>133.50217076700434</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>132.74576271186442</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>132.06887052341597</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130.7967032967033</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>129.69648562300318</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>128.9351081530782</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>128.79503105590061</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>128.76823338735818</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>128.5408163265306</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>126.05373134328359</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>125.48820326678766</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>123.19897084048027</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>122.95731707317073</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>120.36880733944955</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>119.86531986531986</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>119.00568990042674</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>118.7437037037037</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>118.72037914691943</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>118.36727879799666</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>118.00369685767097</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>117.53979238754326</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>116.42857142857143</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>113.53206239168111</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>113.26543209876543</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>113.22160148975792</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>112.34042553191489</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>111.83279742765274</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>111.78082191780823</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>111.77280858676208</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>110.84399375975039</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>109.55056179775281</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>108.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>107.98581560283688</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>107.49707602339181</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>107.39378238341969</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>106.02739726027397</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>105.75471698113208</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>105.42281879194631</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>103.6541095890411</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>102.23183925811438</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>102.19271948608137</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>102.18327974276528</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>102.13470681458003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>100.60240963855422</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>99.62476547842401</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>99.365609348914859</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>99.263351749539595</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>98.777555110220447</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>98.539534883720933</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>98.454999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>97.972602739726028</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>97.82094081942337</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>97.097966728280966</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>96.44234800838575</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>96.227999999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>96.054766734279923</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>95.547697368421055</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>95.544642857142861</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95.037453183520597</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94.457013574660635</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>94.21198156682027</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>93.852873563218395</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.564059900166384</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>92.978547854785475</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>92.28153564899452</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>92.100840336134453</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>91.991323210412148</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>91.774410774410768</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>91.695652173913047</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>91.459829059829062</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>91.257617728531855</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>90.937996820349767</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>90.57228915662651</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>90.252427184466015</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>89.853700516351125</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>89.300492610837438</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>89.136276391554702</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>89.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>89.05</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>88.92307692307692</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>87.705765407554665</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>87.572555205047323</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>87.535042735042737</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>87.340909090909093</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>86.878088962108734</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>86.358208955223887</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>85.582089552238813</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>84.650406504065046</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>84.454388984509464</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>84.354285714285709</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>84.069324090121313</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>83.437037037037044</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>83.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>82.724206349206355</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>82.613924050632917</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>82.299465240641709</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>82.290196078431379</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>82.283018867924525</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>81.273381294964025</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>80.931914893617019</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>80.728421052631575</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>80.643216080402013</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>80.524344569288388</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>80.07736943907156</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>80.06535947712419</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>79.155268022181147</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>78.997867803837948</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>78.945454545454552</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>78.938053097345133</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>78.890219560878251</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>78.665188470066525</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>78.603696098562622</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>78.545905707196027</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>78.217741935483872</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>78.142322097378283</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>78.089385474860336</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>77.913043478260875</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>77.601750547045953</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>77.205069124423957</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>77.201834862385326</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>76.133064516129039</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>75.572519083969468</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>75.162689804772228</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>74.907597535934286</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>74.467532467532465</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>74.253218884120173</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>73.936046511627907</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>73.860911270983209</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>73.459119496855351</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>72.874172185430467</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>71.684210526315795</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>71.537864077669909</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>71.475479744136464</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>71.121399176954739</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>70.669841269841271</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>70.625310173697272</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>70.191126279863482</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>69.895582329317264</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>69.019230769230774</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>68.490514905149055</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>68.309178743961354</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>67.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>67.595808383233532</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>67.292817679558013</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>66.901595744680847</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>66.848920863309345</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>66.774193548387103</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>66.578947368421055</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>66.067114093959731</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>65.85526315789474</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>65.654135338345867</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>65.553235908141957</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>65.054347826086953</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>64.571823204419886</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>64.370860927152322</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>64.021699819168177</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>63.794988610478363</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>63.410138248847929</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>63.216867469879517</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>62.650602409638552</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>61.921052631578945</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>61.846153846153847</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>61.722891566265062</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>61.64</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>61.495327102803735</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>60.977777777777774</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>59.859223300970875</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>59.264270613107826</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>58.789144050104383</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>58.7687074829932</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>58.677536231884055</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>58.340852130325814</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>57.898148148148145</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>57.672941176470587</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>57.650130548302869</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>57.611111111111114</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>57.073643410852711</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>56.793103448275865</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>56.583143507972665</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>56.486238532110093</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>56.397435897435898</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>56.362025316455693</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>55.513595166163142</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>55.224274406332455</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>55.157142857142858</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>54.913793103448278</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>54.878048780487802</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>54.847262247838614</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>54.838709677419352</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>54.573804573804573</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>54.414507772020727</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>53.300248138957819</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>53.189591078066911</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>52.344647519582246</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>52.272511848341232</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>51.661870503597122</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>51.386666666666663</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>51.014634146341464</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>50.934545454545457</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>50.697916666666664</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>50.649230769230769</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>49.896907216494846</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>49.748110831234257</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>49.72853185595568</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>49.664233576642339</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>48.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>48.41317365269461</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>48.324137931034485</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>48.240469208211145</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>48.052307692307693</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>47.84873949579832</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>47.823691460055095</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>47.263291139240508</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>47.125</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>46.785714285714285</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>46.477099236641223</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>46.462365591397848</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>46.022727272727273</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>46.022371364653246</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>45.417721518987342</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>45.271493212669682</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>45.106227106227109</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>44.620300751879697</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>44.022160664819943</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>43.831168831168831</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>43.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>43.582677165354333</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>43.495440729483285</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>42.88796680497925</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>42.765517241379314</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>42.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>42.473282442748094</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>42.203389830508478</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>42.188741721854306</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>41.964285714285715</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>41.762081784386616</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>41.76</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>41.374647887323945</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>41.263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>40.98705501618123</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>40.909319899244331</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>40.74074074074074</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>40.548780487804876</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>39.568345323741006</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>37.310924369747902</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>37.140077821011673</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>37.109215017064848</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>36.652719665271967</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>36.515625</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>33.853448275862071</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>33.783783783783782</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>33.362989323843415</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>33.097457627118644</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>32.516129032258064</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>32.098159509202453</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>30.449392712550608</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>30.062240663900415</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>29.743682310469314</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>29.608510638297872</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>28.181069958847736</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>27.107142857142858</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>26.522522522522522</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>25.792035398230087</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>25.388429752066116</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>22.675925925925927</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>22.284046692607003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8BB1-4349-9DEA-9E533A7171F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>mlb_stats!$Q$1</c:f>
@@ -3635,7 +9149,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8BB1-4349-9DEA-9E533A7171F6}"/>
+              <c16:uniqueId val="{0000000B-8BB1-4349-9DEA-9E533A7171F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3691,26 +9205,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3757,6 +9251,7 @@
         <c:axId val="455060895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3799,26 +9294,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3860,41 +9335,15 @@
         <c:crossAx val="455059263"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="4"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -3911,562 +9360,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4869,7 +9762,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
